--- a/docs/StructureDefinition-LTCPatient.xlsx
+++ b/docs/StructureDefinition-LTCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatient.xlsx
+++ b/docs/StructureDefinition-LTCPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12766" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12766" uniqueCount="1185">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -721,7 +721,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore)
 </t>
   </si>
   <si>
@@ -1124,10 +1124,6 @@
     <t>Patient.identifier:idCardNumber.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore)
-</t>
-  </si>
-  <si>
     <t>簽發identifier的機構（可以只是文字表述）</t>
   </si>
   <si>
@@ -1465,6 +1461,10 @@
   </si>
   <si>
     <t>Patient.identifier:member.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2172,12 +2172,6 @@
   </si>
   <si>
     <t>住民的現居地址</t>
-  </si>
-  <si>
-    <t>使用郵政規範表達的地址（相對於GPS或其他位置定義格式）。這種data type可用於傳達投遞郵件的位址，以及用於訪問可能對郵件投遞無效的位置，這世界定義了各種郵政地址格式。</t>
-  </si>
-  <si>
-    <t>注意：地址的目的是描述用於管理目的之郵政地址，而不是描述絕對的地理座標。郵政地址經常被用作實體位置的代表（亦可見[Location](http://hl7.org/fhir/R4/location.html#)resource）。</t>
   </si>
   <si>
     <t>Patient.address:home.id</t>
@@ -3354,6 +3348,9 @@
   </si>
   <si>
     <t>聯絡人的地址</t>
+  </si>
+  <si>
+    <t>注意：地址的目的是描述用於管理目的之郵政地址，而不是描述絕對的地理座標。郵政地址經常被用作實體位置的代表（亦可見[Location](http://hl7.org/fhir/R4/location.html#)resource）。</t>
   </si>
   <si>
     <t>需要紀錄用以聯絡聯絡人的郵件地址或到訪地址</t>
@@ -4000,17 +3997,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="92.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="63.1015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.36328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="80.15625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.7578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="231.328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="209.87890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4019,27 +4016,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.17578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="25.8515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.58203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="21.9375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="137.7109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="35.7421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="92.15234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9220,16 +9217,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -9311,13 +9308,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>158</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>20</v>
@@ -9342,10 +9339,10 @@
         <v>159</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -9430,7 +9427,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>168</v>
@@ -9545,7 +9542,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>174</v>
@@ -9662,7 +9659,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>179</v>
@@ -9781,7 +9778,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>189</v>
@@ -9900,7 +9897,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>257</v>
@@ -10015,7 +10012,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>259</v>
@@ -10132,7 +10129,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>261</v>
@@ -10251,7 +10248,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>271</v>
@@ -10366,7 +10363,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>273</v>
@@ -10483,7 +10480,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>275</v>
@@ -10602,7 +10599,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>285</v>
@@ -10719,7 +10716,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>293</v>
@@ -10765,7 +10762,7 @@
         <v>20</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>20</v>
@@ -10836,7 +10833,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>317</v>
@@ -10953,7 +10950,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>325</v>
@@ -11072,7 +11069,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>335</v>
@@ -11191,7 +11188,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>201</v>
@@ -11220,7 +11217,7 @@
         <v>102</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>345</v>
@@ -11239,7 +11236,7 @@
         <v>20</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>206</v>
@@ -11310,7 +11307,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>210</v>
@@ -11339,7 +11336,7 @@
         <v>169</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>351</v>
@@ -11427,7 +11424,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>218</v>
@@ -11542,7 +11539,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>225</v>
@@ -11568,16 +11565,16 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -11659,13 +11656,13 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>158</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>20</v>
@@ -11690,10 +11687,10 @@
         <v>159</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -11778,7 +11775,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>168</v>
@@ -11893,7 +11890,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>174</v>
@@ -12010,7 +12007,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>179</v>
@@ -12129,7 +12126,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>189</v>
@@ -12248,7 +12245,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>257</v>
@@ -12363,7 +12360,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>259</v>
@@ -12480,7 +12477,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>261</v>
@@ -12599,7 +12596,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>271</v>
@@ -12714,7 +12711,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>273</v>
@@ -12831,7 +12828,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>275</v>
@@ -12950,7 +12947,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>285</v>
@@ -13067,7 +13064,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>293</v>
@@ -13113,7 +13110,7 @@
         <v>20</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>20</v>
@@ -13184,7 +13181,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>317</v>
@@ -13301,7 +13298,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>325</v>
@@ -13420,7 +13417,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>335</v>
@@ -13539,7 +13536,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>201</v>
@@ -13568,7 +13565,7 @@
         <v>102</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>345</v>
@@ -13587,7 +13584,7 @@
         <v>20</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>206</v>
@@ -13658,7 +13655,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>210</v>
@@ -13687,7 +13684,7 @@
         <v>169</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>351</v>
@@ -13775,7 +13772,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>218</v>
@@ -13890,7 +13887,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>225</v>
@@ -13916,16 +13913,16 @@
         <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -14007,13 +14004,13 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>158</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>20</v>
@@ -14038,10 +14035,10 @@
         <v>159</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -14126,7 +14123,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>168</v>
@@ -14241,7 +14238,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>174</v>
@@ -14358,7 +14355,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>179</v>
@@ -14477,7 +14474,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>189</v>
@@ -14596,7 +14593,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>257</v>
@@ -14711,7 +14708,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>259</v>
@@ -14828,7 +14825,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>261</v>
@@ -14947,7 +14944,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>271</v>
@@ -15062,7 +15059,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>273</v>
@@ -15179,7 +15176,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>275</v>
@@ -15298,7 +15295,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>285</v>
@@ -15415,7 +15412,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>293</v>
@@ -15461,7 +15458,7 @@
         <v>20</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>20</v>
@@ -15532,7 +15529,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>317</v>
@@ -15649,7 +15646,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>325</v>
@@ -15768,7 +15765,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>335</v>
@@ -15887,7 +15884,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>201</v>
@@ -15916,7 +15913,7 @@
         <v>102</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>345</v>
@@ -16006,7 +16003,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>210</v>
@@ -16035,7 +16032,7 @@
         <v>169</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>351</v>
@@ -16123,7 +16120,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>218</v>
@@ -16238,7 +16235,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>225</v>
@@ -16264,16 +16261,16 @@
         <v>89</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -16355,13 +16352,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>158</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>20</v>
@@ -16386,7 +16383,7 @@
         <v>159</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>161</v>
@@ -16474,7 +16471,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>168</v>
@@ -16589,7 +16586,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>174</v>
@@ -16706,7 +16703,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>179</v>
@@ -16825,7 +16822,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>189</v>
@@ -16854,13 +16851,13 @@
         <v>248</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>194</v>
@@ -16944,7 +16941,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>257</v>
@@ -17059,7 +17056,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>259</v>
@@ -17176,7 +17173,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>261</v>
@@ -17211,7 +17208,7 @@
         <v>264</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>266</v>
@@ -17295,7 +17292,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>271</v>
@@ -17410,7 +17407,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>273</v>
@@ -17527,7 +17524,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>275</v>
@@ -17646,7 +17643,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>285</v>
@@ -17763,7 +17760,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>293</v>
@@ -17809,7 +17806,7 @@
         <v>20</v>
       </c>
       <c r="S118" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>20</v>
@@ -17880,7 +17877,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>317</v>
@@ -17997,7 +17994,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>325</v>
@@ -18116,7 +18113,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>335</v>
@@ -18235,7 +18232,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>201</v>
@@ -18264,7 +18261,7 @@
         <v>102</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>203</v>
@@ -18354,7 +18351,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>210</v>
@@ -18383,7 +18380,7 @@
         <v>169</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>212</v>
@@ -18471,7 +18468,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>218</v>
@@ -18586,7 +18583,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>225</v>
@@ -18612,7 +18609,7 @@
         <v>89</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>226</v>
+        <v>469</v>
       </c>
       <c r="L125" t="s" s="2">
         <v>227</v>
@@ -25075,10 +25072,10 @@
         <v>699</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>692</v>
@@ -25162,10 +25159,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -25191,10 +25188,10 @@
         <v>169</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -25277,10 +25274,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -25394,13 +25391,13 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B183" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="C183" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="C183" t="s" s="2">
-        <v>709</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>20</v>
@@ -25422,13 +25419,13 @@
         <v>20</v>
       </c>
       <c r="K183" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="M183" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -25511,13 +25508,13 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D184" t="s" s="2">
         <v>20</v>
@@ -25539,13 +25536,13 @@
         <v>20</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="M184" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>717</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
@@ -25628,13 +25625,13 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D185" t="s" s="2">
         <v>20</v>
@@ -25656,13 +25653,13 @@
         <v>20</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="M185" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
@@ -25745,13 +25742,13 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D186" t="s" s="2">
         <v>20</v>
@@ -25773,13 +25770,13 @@
         <v>20</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -25862,16 +25859,16 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="D187" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="B187" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="C187" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="D187" t="s" s="2">
-        <v>730</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" t="s" s="2">
@@ -25890,13 +25887,13 @@
         <v>20</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="M187" t="s" s="2">
         <v>731</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -25979,13 +25976,13 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>20</v>
@@ -26007,13 +26004,13 @@
         <v>20</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
@@ -26096,13 +26093,13 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D189" t="s" s="2">
         <v>20</v>
@@ -26124,13 +26121,13 @@
         <v>20</v>
       </c>
       <c r="K189" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="M189" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -26213,16 +26210,16 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="D190" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="B190" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="C190" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="D190" t="s" s="2">
-        <v>746</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -26241,13 +26238,13 @@
         <v>20</v>
       </c>
       <c r="K190" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>749</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -26330,10 +26327,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26359,16 +26356,16 @@
         <v>108</v>
       </c>
       <c r="L191" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="N191" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="O191" t="s" s="2">
         <v>753</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>20</v>
@@ -26396,28 +26393,28 @@
         <v>184</v>
       </c>
       <c r="Y191" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF191" t="s" s="2">
         <v>756</v>
-      </c>
-      <c r="Z191" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="AA191" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB191" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC191" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD191" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE191" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF191" t="s" s="2">
-        <v>758</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>79</v>
@@ -26441,7 +26438,7 @@
         <v>20</v>
       </c>
       <c r="AN191" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AO191" t="s" s="2">
         <v>20</v>
@@ -26449,10 +26446,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26478,13 +26475,13 @@
         <v>108</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="N192" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>764</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -26498,7 +26495,7 @@
         <v>20</v>
       </c>
       <c r="T192" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="U192" t="s" s="2">
         <v>20</v>
@@ -26513,28 +26510,28 @@
         <v>184</v>
       </c>
       <c r="Y192" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF192" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="Z192" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="AA192" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC192" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD192" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE192" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF192" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>79</v>
@@ -26558,7 +26555,7 @@
         <v>20</v>
       </c>
       <c r="AN192" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AO192" t="s" s="2">
         <v>20</v>
@@ -26566,10 +26563,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26595,13 +26592,13 @@
         <v>169</v>
       </c>
       <c r="L193" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="N193" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>774</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>512</v>
@@ -26617,7 +26614,7 @@
         <v>20</v>
       </c>
       <c r="T193" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="U193" t="s" s="2">
         <v>20</v>
@@ -26653,7 +26650,7 @@
         <v>20</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>79</v>
@@ -26677,7 +26674,7 @@
         <v>20</v>
       </c>
       <c r="AN193" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="AO193" t="s" s="2">
         <v>20</v>
@@ -26685,14 +26682,14 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" t="s" s="2">
@@ -26714,10 +26711,10 @@
         <v>169</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -26732,7 +26729,7 @@
         <v>20</v>
       </c>
       <c r="T194" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="U194" t="s" s="2">
         <v>20</v>
@@ -26768,7 +26765,7 @@
         <v>20</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>79</v>
@@ -26783,7 +26780,7 @@
         <v>100</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AL194" t="s" s="2">
         <v>20</v>
@@ -26792,7 +26789,7 @@
         <v>20</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AO194" t="s" s="2">
         <v>20</v>
@@ -26800,14 +26797,14 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" t="s" s="2">
@@ -26829,10 +26826,10 @@
         <v>169</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
@@ -26847,7 +26844,7 @@
         <v>20</v>
       </c>
       <c r="T195" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="U195" t="s" s="2">
         <v>20</v>
@@ -26883,7 +26880,7 @@
         <v>20</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>79</v>
@@ -26898,7 +26895,7 @@
         <v>100</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AL195" t="s" s="2">
         <v>20</v>
@@ -26907,7 +26904,7 @@
         <v>20</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AO195" t="s" s="2">
         <v>20</v>
@@ -26915,14 +26912,14 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" t="s" s="2">
@@ -26944,13 +26941,13 @@
         <v>169</v>
       </c>
       <c r="L196" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="N196" t="s" s="2">
         <v>799</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>800</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>801</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" t="s" s="2">
@@ -26964,7 +26961,7 @@
         <v>20</v>
       </c>
       <c r="T196" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="U196" t="s" s="2">
         <v>20</v>
@@ -27000,7 +26997,7 @@
         <v>20</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>79</v>
@@ -27015,7 +27012,7 @@
         <v>100</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AL196" t="s" s="2">
         <v>20</v>
@@ -27024,7 +27021,7 @@
         <v>20</v>
       </c>
       <c r="AN196" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AO196" t="s" s="2">
         <v>20</v>
@@ -27032,14 +27029,14 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" t="s" s="2">
@@ -27061,10 +27058,10 @@
         <v>169</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -27115,7 +27112,7 @@
         <v>20</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>79</v>
@@ -27130,7 +27127,7 @@
         <v>100</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AL197" t="s" s="2">
         <v>20</v>
@@ -27139,7 +27136,7 @@
         <v>20</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AO197" t="s" s="2">
         <v>20</v>
@@ -27147,14 +27144,14 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
@@ -27176,10 +27173,10 @@
         <v>169</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -27194,7 +27191,7 @@
         <v>20</v>
       </c>
       <c r="T198" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="U198" t="s" s="2">
         <v>20</v>
@@ -27230,7 +27227,7 @@
         <v>20</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>79</v>
@@ -27245,7 +27242,7 @@
         <v>100</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AL198" t="s" s="2">
         <v>20</v>
@@ -27254,7 +27251,7 @@
         <v>20</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>20</v>
@@ -27262,10 +27259,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -27291,10 +27288,10 @@
         <v>169</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -27377,10 +27374,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -27406,10 +27403,10 @@
         <v>134</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -27490,13 +27487,13 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D201" t="s" s="2">
         <v>20</v>
@@ -27518,13 +27515,13 @@
         <v>20</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
@@ -27607,10 +27604,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27636,10 +27633,10 @@
         <v>169</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -27722,10 +27719,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27837,10 +27834,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27866,13 +27863,13 @@
         <v>102</v>
       </c>
       <c r="L204" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="N204" t="s" s="2">
         <v>839</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>841</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
@@ -27880,7 +27877,7 @@
       </c>
       <c r="Q204" s="2"/>
       <c r="R204" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="S204" t="s" s="2">
         <v>20</v>
@@ -27922,7 +27919,7 @@
         <v>20</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>88</v>
@@ -27954,10 +27951,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27983,13 +27980,13 @@
         <v>190</v>
       </c>
       <c r="L205" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="N205" t="s" s="2">
         <v>846</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>848</v>
       </c>
       <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
@@ -28039,7 +28036,7 @@
         <v>20</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>79</v>
@@ -28071,10 +28068,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -28100,10 +28097,10 @@
         <v>169</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -28186,10 +28183,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -28218,10 +28215,10 @@
         <v>135</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -28303,10 +28300,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28329,19 +28326,19 @@
         <v>20</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="M208" t="s" s="2">
         <v>858</v>
-      </c>
-      <c r="L208" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="M208" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="N208" t="s" s="2">
         <v>265</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>20</v>
@@ -28378,7 +28375,7 @@
         <v>20</v>
       </c>
       <c r="AB208" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="AC208" s="2"/>
       <c r="AD208" t="s" s="2">
@@ -28403,7 +28400,7 @@
         <v>100</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>20</v>
@@ -28412,7 +28409,7 @@
         <v>20</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>20</v>
@@ -28420,13 +28417,13 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>20</v>
@@ -28448,19 +28445,19 @@
         <v>20</v>
       </c>
       <c r="K209" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="L209" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="M209" t="s" s="2">
         <v>858</v>
-      </c>
-      <c r="L209" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="M209" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="N209" t="s" s="2">
         <v>265</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>20</v>
@@ -28488,10 +28485,10 @@
         <v>184</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="Z209" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AA209" t="s" s="2">
         <v>20</v>
@@ -28524,7 +28521,7 @@
         <v>100</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AL209" t="s" s="2">
         <v>20</v>
@@ -28533,7 +28530,7 @@
         <v>20</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>20</v>
@@ -28541,10 +28538,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28570,10 +28567,10 @@
         <v>169</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -28656,10 +28653,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28685,13 +28682,13 @@
         <v>134</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
@@ -28773,10 +28770,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28802,16 +28799,16 @@
         <v>102</v>
       </c>
       <c r="L212" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="N212" t="s" s="2">
         <v>875</v>
       </c>
-      <c r="M212" t="s" s="2">
+      <c r="O212" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>877</v>
-      </c>
-      <c r="O212" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="P212" t="s" s="2">
         <v>20</v>
@@ -28821,7 +28818,7 @@
         <v>20</v>
       </c>
       <c r="S212" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="T212" t="s" s="2">
         <v>20</v>
@@ -28892,10 +28889,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28921,13 +28918,13 @@
         <v>169</v>
       </c>
       <c r="L213" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="M213" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="N213" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>883</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>884</v>
       </c>
       <c r="O213" s="2"/>
       <c r="P213" t="s" s="2">
@@ -29009,10 +29006,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -29038,14 +29035,14 @@
         <v>108</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="P214" t="s" s="2">
         <v>20</v>
@@ -29126,10 +29123,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -29155,14 +29152,14 @@
         <v>169</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>20</v>
@@ -29243,10 +29240,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -29272,16 +29269,16 @@
         <v>326</v>
       </c>
       <c r="L216" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="M216" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="N216" t="s" s="2">
         <v>897</v>
       </c>
-      <c r="M216" t="s" s="2">
+      <c r="O216" t="s" s="2">
         <v>898</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>899</v>
-      </c>
-      <c r="O216" t="s" s="2">
-        <v>900</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>20</v>
@@ -29362,13 +29359,13 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D217" t="s" s="2">
         <v>20</v>
@@ -29390,19 +29387,19 @@
         <v>20</v>
       </c>
       <c r="K217" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="L217" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="M217" t="s" s="2">
         <v>858</v>
-      </c>
-      <c r="L217" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="N217" t="s" s="2">
         <v>265</v>
       </c>
       <c r="O217" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>20</v>
@@ -29430,10 +29427,10 @@
         <v>184</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="AA217" t="s" s="2">
         <v>20</v>
@@ -29466,7 +29463,7 @@
         <v>100</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AL217" t="s" s="2">
         <v>20</v>
@@ -29475,7 +29472,7 @@
         <v>20</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>20</v>
@@ -29483,10 +29480,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29512,10 +29509,10 @@
         <v>169</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -29598,10 +29595,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29627,13 +29624,13 @@
         <v>134</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
@@ -29715,10 +29712,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29744,16 +29741,16 @@
         <v>102</v>
       </c>
       <c r="L220" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="M220" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="N220" t="s" s="2">
         <v>875</v>
       </c>
-      <c r="M220" t="s" s="2">
+      <c r="O220" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>877</v>
-      </c>
-      <c r="O220" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>20</v>
@@ -29763,7 +29760,7 @@
         <v>20</v>
       </c>
       <c r="S220" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T220" t="s" s="2">
         <v>20</v>
@@ -29834,10 +29831,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29863,13 +29860,13 @@
         <v>169</v>
       </c>
       <c r="L221" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="M221" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="N221" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>883</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>884</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" t="s" s="2">
@@ -29951,10 +29948,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -29980,14 +29977,14 @@
         <v>108</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>20</v>
@@ -30068,10 +30065,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -30097,14 +30094,14 @@
         <v>169</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>20</v>
@@ -30185,10 +30182,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -30214,16 +30211,16 @@
         <v>326</v>
       </c>
       <c r="L224" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="M224" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="N224" t="s" s="2">
         <v>897</v>
       </c>
-      <c r="M224" t="s" s="2">
+      <c r="O224" t="s" s="2">
         <v>898</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>899</v>
-      </c>
-      <c r="O224" t="s" s="2">
-        <v>900</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>20</v>
@@ -30304,13 +30301,13 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>20</v>
@@ -30332,19 +30329,19 @@
         <v>20</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="M225" t="s" s="2">
         <v>858</v>
-      </c>
-      <c r="L225" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="M225" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="N225" t="s" s="2">
         <v>265</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>20</v>
@@ -30372,10 +30369,10 @@
         <v>184</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="AA225" t="s" s="2">
         <v>20</v>
@@ -30408,7 +30405,7 @@
         <v>100</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AL225" t="s" s="2">
         <v>20</v>
@@ -30417,7 +30414,7 @@
         <v>20</v>
       </c>
       <c r="AN225" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AO225" t="s" s="2">
         <v>20</v>
@@ -30425,10 +30422,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30454,10 +30451,10 @@
         <v>169</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -30540,10 +30537,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -30569,13 +30566,13 @@
         <v>134</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="O227" s="2"/>
       <c r="P227" t="s" s="2">
@@ -30657,10 +30654,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -30686,16 +30683,16 @@
         <v>102</v>
       </c>
       <c r="L228" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="N228" t="s" s="2">
         <v>875</v>
       </c>
-      <c r="M228" t="s" s="2">
+      <c r="O228" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>877</v>
-      </c>
-      <c r="O228" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="P228" t="s" s="2">
         <v>20</v>
@@ -30705,7 +30702,7 @@
         <v>20</v>
       </c>
       <c r="S228" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="T228" t="s" s="2">
         <v>20</v>
@@ -30776,10 +30773,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -30805,13 +30802,13 @@
         <v>169</v>
       </c>
       <c r="L229" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="N229" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>883</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>884</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" t="s" s="2">
@@ -30893,10 +30890,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -30922,14 +30919,14 @@
         <v>108</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>20</v>
@@ -31010,10 +31007,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -31039,14 +31036,14 @@
         <v>169</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="P231" t="s" s="2">
         <v>20</v>
@@ -31127,10 +31124,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -31156,16 +31153,16 @@
         <v>326</v>
       </c>
       <c r="L232" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="M232" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="N232" t="s" s="2">
         <v>897</v>
       </c>
-      <c r="M232" t="s" s="2">
+      <c r="O232" t="s" s="2">
         <v>898</v>
-      </c>
-      <c r="N232" t="s" s="2">
-        <v>899</v>
-      </c>
-      <c r="O232" t="s" s="2">
-        <v>900</v>
       </c>
       <c r="P232" t="s" s="2">
         <v>20</v>
@@ -31246,10 +31243,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -31275,16 +31272,16 @@
         <v>169</v>
       </c>
       <c r="L233" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="M233" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="N233" t="s" s="2">
         <v>925</v>
       </c>
-      <c r="M233" t="s" s="2">
+      <c r="O233" t="s" s="2">
         <v>926</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>927</v>
-      </c>
-      <c r="O233" t="s" s="2">
-        <v>928</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>20</v>
@@ -31365,10 +31362,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -31394,10 +31391,10 @@
         <v>169</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -31421,7 +31418,7 @@
         <v>20</v>
       </c>
       <c r="W234" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="X234" t="s" s="2">
         <v>20</v>
@@ -31480,10 +31477,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -31509,13 +31506,13 @@
         <v>169</v>
       </c>
       <c r="L235" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="N235" t="s" s="2">
         <v>935</v>
-      </c>
-      <c r="M235" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>937</v>
       </c>
       <c r="O235" s="2"/>
       <c r="P235" t="s" s="2">
@@ -31565,7 +31562,7 @@
         <v>20</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>79</v>
@@ -31580,7 +31577,7 @@
         <v>100</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AL235" t="s" s="2">
         <v>20</v>
@@ -31589,7 +31586,7 @@
         <v>20</v>
       </c>
       <c r="AN235" t="s" s="2">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AO235" t="s" s="2">
         <v>20</v>
@@ -31597,10 +31594,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -31626,14 +31623,14 @@
         <v>219</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" t="s" s="2">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>20</v>
@@ -31646,7 +31643,7 @@
         <v>20</v>
       </c>
       <c r="T236" t="s" s="2">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="U236" t="s" s="2">
         <v>20</v>
@@ -31682,7 +31679,7 @@
         <v>20</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>79</v>
@@ -31706,7 +31703,7 @@
         <v>20</v>
       </c>
       <c r="AN236" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AO236" t="s" s="2">
         <v>20</v>
@@ -31714,13 +31711,13 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>687</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D237" t="s" s="2">
         <v>20</v>
@@ -31745,13 +31742,13 @@
         <v>688</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>692</v>
@@ -31835,10 +31832,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -31864,10 +31861,10 @@
         <v>169</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
@@ -31950,10 +31947,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -32067,13 +32064,13 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B240" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="C240" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="C240" t="s" s="2">
-        <v>709</v>
       </c>
       <c r="D240" t="s" s="2">
         <v>20</v>
@@ -32095,13 +32092,13 @@
         <v>20</v>
       </c>
       <c r="K240" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="L240" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="M240" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="L240" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="M240" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -32184,13 +32181,13 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D241" t="s" s="2">
         <v>20</v>
@@ -32212,13 +32209,13 @@
         <v>20</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="L241" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="M241" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>717</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" s="2"/>
@@ -32301,13 +32298,13 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D242" t="s" s="2">
         <v>20</v>
@@ -32329,13 +32326,13 @@
         <v>20</v>
       </c>
       <c r="K242" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="L242" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="M242" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="L242" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="M242" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
@@ -32418,13 +32415,13 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D243" t="s" s="2">
         <v>20</v>
@@ -32446,13 +32443,13 @@
         <v>20</v>
       </c>
       <c r="K243" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="L243" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="M243" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="M243" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
@@ -32535,16 +32532,16 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D244" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" t="s" s="2">
@@ -32563,13 +32560,13 @@
         <v>20</v>
       </c>
       <c r="K244" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="L244" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="M244" t="s" s="2">
         <v>731</v>
-      </c>
-      <c r="L244" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="M244" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
@@ -32652,13 +32649,13 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D245" t="s" s="2">
         <v>20</v>
@@ -32680,13 +32677,13 @@
         <v>20</v>
       </c>
       <c r="K245" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="L245" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="M245" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="L245" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="M245" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
@@ -32769,13 +32766,13 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D246" t="s" s="2">
         <v>20</v>
@@ -32797,13 +32794,13 @@
         <v>20</v>
       </c>
       <c r="K246" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="L246" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="M246" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="L246" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="M246" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -32886,16 +32883,16 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D247" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
@@ -32914,13 +32911,13 @@
         <v>20</v>
       </c>
       <c r="K247" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="L247" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="M247" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="L247" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="M247" t="s" s="2">
-        <v>749</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -33003,10 +33000,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -33032,16 +33029,16 @@
         <v>108</v>
       </c>
       <c r="L248" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="M248" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="N248" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="M248" t="s" s="2">
+      <c r="O248" t="s" s="2">
         <v>753</v>
-      </c>
-      <c r="N248" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="O248" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="P248" t="s" s="2">
         <v>20</v>
@@ -33051,7 +33048,7 @@
         <v>20</v>
       </c>
       <c r="S248" t="s" s="2">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="T248" t="s" s="2">
         <v>698</v>
@@ -33069,28 +33066,28 @@
         <v>184</v>
       </c>
       <c r="Y248" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="Z248" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AA248" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB248" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC248" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD248" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE248" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF248" t="s" s="2">
         <v>756</v>
-      </c>
-      <c r="Z248" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="AA248" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB248" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC248" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD248" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE248" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF248" t="s" s="2">
-        <v>758</v>
       </c>
       <c r="AG248" t="s" s="2">
         <v>79</v>
@@ -33114,7 +33111,7 @@
         <v>20</v>
       </c>
       <c r="AN248" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AO248" t="s" s="2">
         <v>20</v>
@@ -33122,10 +33119,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -33151,13 +33148,13 @@
         <v>108</v>
       </c>
       <c r="L249" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="M249" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="N249" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="M249" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="N249" t="s" s="2">
-        <v>764</v>
       </c>
       <c r="O249" s="2"/>
       <c r="P249" t="s" s="2">
@@ -33171,7 +33168,7 @@
         <v>20</v>
       </c>
       <c r="T249" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="U249" t="s" s="2">
         <v>20</v>
@@ -33186,28 +33183,28 @@
         <v>184</v>
       </c>
       <c r="Y249" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="Z249" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="AA249" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB249" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC249" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD249" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE249" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF249" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="Z249" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="AA249" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB249" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC249" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD249" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE249" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF249" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>79</v>
@@ -33231,7 +33228,7 @@
         <v>20</v>
       </c>
       <c r="AN249" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AO249" t="s" s="2">
         <v>20</v>
@@ -33239,10 +33236,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -33268,13 +33265,13 @@
         <v>169</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>512</v>
@@ -33290,7 +33287,7 @@
         <v>20</v>
       </c>
       <c r="T250" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="U250" t="s" s="2">
         <v>20</v>
@@ -33326,7 +33323,7 @@
         <v>20</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>79</v>
@@ -33350,7 +33347,7 @@
         <v>20</v>
       </c>
       <c r="AN250" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="AO250" t="s" s="2">
         <v>20</v>
@@ -33358,14 +33355,14 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" t="s" s="2">
@@ -33387,10 +33384,10 @@
         <v>169</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" s="2"/>
@@ -33405,7 +33402,7 @@
         <v>20</v>
       </c>
       <c r="T251" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="U251" t="s" s="2">
         <v>20</v>
@@ -33441,7 +33438,7 @@
         <v>20</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AG251" t="s" s="2">
         <v>79</v>
@@ -33456,7 +33453,7 @@
         <v>100</v>
       </c>
       <c r="AK251" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AL251" t="s" s="2">
         <v>20</v>
@@ -33465,7 +33462,7 @@
         <v>20</v>
       </c>
       <c r="AN251" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AO251" t="s" s="2">
         <v>20</v>
@@ -33473,14 +33470,14 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" t="s" s="2">
@@ -33502,10 +33499,10 @@
         <v>169</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="N252" s="2"/>
       <c r="O252" s="2"/>
@@ -33520,7 +33517,7 @@
         <v>20</v>
       </c>
       <c r="T252" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="U252" t="s" s="2">
         <v>20</v>
@@ -33556,7 +33553,7 @@
         <v>20</v>
       </c>
       <c r="AF252" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AG252" t="s" s="2">
         <v>79</v>
@@ -33571,7 +33568,7 @@
         <v>100</v>
       </c>
       <c r="AK252" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AL252" t="s" s="2">
         <v>20</v>
@@ -33580,7 +33577,7 @@
         <v>20</v>
       </c>
       <c r="AN252" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AO252" t="s" s="2">
         <v>20</v>
@@ -33588,14 +33585,14 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" t="s" s="2">
@@ -33617,13 +33614,13 @@
         <v>169</v>
       </c>
       <c r="L253" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="M253" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="N253" t="s" s="2">
         <v>799</v>
-      </c>
-      <c r="M253" t="s" s="2">
-        <v>800</v>
-      </c>
-      <c r="N253" t="s" s="2">
-        <v>801</v>
       </c>
       <c r="O253" s="2"/>
       <c r="P253" t="s" s="2">
@@ -33637,7 +33634,7 @@
         <v>20</v>
       </c>
       <c r="T253" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="U253" t="s" s="2">
         <v>20</v>
@@ -33673,7 +33670,7 @@
         <v>20</v>
       </c>
       <c r="AF253" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AG253" t="s" s="2">
         <v>79</v>
@@ -33688,7 +33685,7 @@
         <v>100</v>
       </c>
       <c r="AK253" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AL253" t="s" s="2">
         <v>20</v>
@@ -33697,7 +33694,7 @@
         <v>20</v>
       </c>
       <c r="AN253" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AO253" t="s" s="2">
         <v>20</v>
@@ -33705,14 +33702,14 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" t="s" s="2">
@@ -33734,10 +33731,10 @@
         <v>169</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
@@ -33788,7 +33785,7 @@
         <v>20</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AG254" t="s" s="2">
         <v>79</v>
@@ -33803,7 +33800,7 @@
         <v>100</v>
       </c>
       <c r="AK254" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AL254" t="s" s="2">
         <v>20</v>
@@ -33812,7 +33809,7 @@
         <v>20</v>
       </c>
       <c r="AN254" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AO254" t="s" s="2">
         <v>20</v>
@@ -33820,14 +33817,14 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" t="s" s="2">
@@ -33849,10 +33846,10 @@
         <v>169</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
@@ -33867,7 +33864,7 @@
         <v>20</v>
       </c>
       <c r="T255" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="U255" t="s" s="2">
         <v>20</v>
@@ -33903,7 +33900,7 @@
         <v>20</v>
       </c>
       <c r="AF255" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AG255" t="s" s="2">
         <v>79</v>
@@ -33918,7 +33915,7 @@
         <v>100</v>
       </c>
       <c r="AK255" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AL255" t="s" s="2">
         <v>20</v>
@@ -33927,7 +33924,7 @@
         <v>20</v>
       </c>
       <c r="AN255" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AO255" t="s" s="2">
         <v>20</v>
@@ -33935,10 +33932,10 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
@@ -33964,10 +33961,10 @@
         <v>169</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
@@ -34050,10 +34047,10 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -34079,10 +34076,10 @@
         <v>134</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -34163,13 +34160,13 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D258" t="s" s="2">
         <v>20</v>
@@ -34191,13 +34188,13 @@
         <v>20</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
@@ -34280,10 +34277,10 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -34309,10 +34306,10 @@
         <v>169</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
@@ -34395,10 +34392,10 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -34510,10 +34507,10 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -34539,13 +34536,13 @@
         <v>102</v>
       </c>
       <c r="L261" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="M261" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="N261" t="s" s="2">
         <v>839</v>
-      </c>
-      <c r="M261" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="N261" t="s" s="2">
-        <v>841</v>
       </c>
       <c r="O261" s="2"/>
       <c r="P261" t="s" s="2">
@@ -34553,7 +34550,7 @@
       </c>
       <c r="Q261" s="2"/>
       <c r="R261" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="S261" t="s" s="2">
         <v>20</v>
@@ -34595,7 +34592,7 @@
         <v>20</v>
       </c>
       <c r="AF261" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AG261" t="s" s="2">
         <v>88</v>
@@ -34627,10 +34624,10 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -34656,13 +34653,13 @@
         <v>190</v>
       </c>
       <c r="L262" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="M262" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="N262" t="s" s="2">
         <v>846</v>
-      </c>
-      <c r="M262" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="N262" t="s" s="2">
-        <v>848</v>
       </c>
       <c r="O262" s="2"/>
       <c r="P262" t="s" s="2">
@@ -34712,7 +34709,7 @@
         <v>20</v>
       </c>
       <c r="AF262" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="AG262" t="s" s="2">
         <v>79</v>
@@ -34744,10 +34741,10 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -34773,10 +34770,10 @@
         <v>169</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
@@ -34859,10 +34856,10 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -34891,10 +34888,10 @@
         <v>135</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="O264" s="2"/>
       <c r="P264" t="s" s="2">
@@ -34976,10 +34973,10 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -35002,19 +34999,19 @@
         <v>20</v>
       </c>
       <c r="K265" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="L265" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="M265" t="s" s="2">
         <v>858</v>
-      </c>
-      <c r="L265" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="M265" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="N265" t="s" s="2">
         <v>265</v>
       </c>
       <c r="O265" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="P265" t="s" s="2">
         <v>20</v>
@@ -35051,7 +35048,7 @@
         <v>20</v>
       </c>
       <c r="AB265" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="AC265" s="2"/>
       <c r="AD265" t="s" s="2">
@@ -35076,7 +35073,7 @@
         <v>100</v>
       </c>
       <c r="AK265" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AL265" t="s" s="2">
         <v>20</v>
@@ -35085,7 +35082,7 @@
         <v>20</v>
       </c>
       <c r="AN265" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AO265" t="s" s="2">
         <v>20</v>
@@ -35093,13 +35090,13 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D266" t="s" s="2">
         <v>20</v>
@@ -35121,19 +35118,19 @@
         <v>20</v>
       </c>
       <c r="K266" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="L266" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="M266" t="s" s="2">
         <v>858</v>
-      </c>
-      <c r="L266" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="M266" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="N266" t="s" s="2">
         <v>265</v>
       </c>
       <c r="O266" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="P266" t="s" s="2">
         <v>20</v>
@@ -35161,10 +35158,10 @@
         <v>184</v>
       </c>
       <c r="Y266" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="Z266" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AA266" t="s" s="2">
         <v>20</v>
@@ -35197,7 +35194,7 @@
         <v>100</v>
       </c>
       <c r="AK266" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AL266" t="s" s="2">
         <v>20</v>
@@ -35206,7 +35203,7 @@
         <v>20</v>
       </c>
       <c r="AN266" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AO266" t="s" s="2">
         <v>20</v>
@@ -35214,10 +35211,10 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -35243,10 +35240,10 @@
         <v>169</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N267" s="2"/>
       <c r="O267" s="2"/>
@@ -35329,10 +35326,10 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -35358,13 +35355,13 @@
         <v>134</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="O268" s="2"/>
       <c r="P268" t="s" s="2">
@@ -35446,10 +35443,10 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -35475,16 +35472,16 @@
         <v>102</v>
       </c>
       <c r="L269" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="M269" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="N269" t="s" s="2">
         <v>875</v>
       </c>
-      <c r="M269" t="s" s="2">
+      <c r="O269" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>877</v>
-      </c>
-      <c r="O269" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="P269" t="s" s="2">
         <v>20</v>
@@ -35494,7 +35491,7 @@
         <v>20</v>
       </c>
       <c r="S269" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="T269" t="s" s="2">
         <v>20</v>
@@ -35565,10 +35562,10 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -35594,13 +35591,13 @@
         <v>169</v>
       </c>
       <c r="L270" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="M270" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="N270" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="M270" t="s" s="2">
-        <v>883</v>
-      </c>
-      <c r="N270" t="s" s="2">
-        <v>884</v>
       </c>
       <c r="O270" s="2"/>
       <c r="P270" t="s" s="2">
@@ -35682,10 +35679,10 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -35711,14 +35708,14 @@
         <v>108</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="P271" t="s" s="2">
         <v>20</v>
@@ -35799,10 +35796,10 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -35828,14 +35825,14 @@
         <v>169</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="N272" s="2"/>
       <c r="O272" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="P272" t="s" s="2">
         <v>20</v>
@@ -35916,10 +35913,10 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -35945,16 +35942,16 @@
         <v>326</v>
       </c>
       <c r="L273" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="M273" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="N273" t="s" s="2">
         <v>897</v>
       </c>
-      <c r="M273" t="s" s="2">
+      <c r="O273" t="s" s="2">
         <v>898</v>
-      </c>
-      <c r="N273" t="s" s="2">
-        <v>899</v>
-      </c>
-      <c r="O273" t="s" s="2">
-        <v>900</v>
       </c>
       <c r="P273" t="s" s="2">
         <v>20</v>
@@ -36035,13 +36032,13 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D274" t="s" s="2">
         <v>20</v>
@@ -36063,19 +36060,19 @@
         <v>20</v>
       </c>
       <c r="K274" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="L274" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="M274" t="s" s="2">
         <v>858</v>
-      </c>
-      <c r="L274" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="M274" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="N274" t="s" s="2">
         <v>265</v>
       </c>
       <c r="O274" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="P274" t="s" s="2">
         <v>20</v>
@@ -36103,10 +36100,10 @@
         <v>184</v>
       </c>
       <c r="Y274" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="Z274" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="AA274" t="s" s="2">
         <v>20</v>
@@ -36139,7 +36136,7 @@
         <v>100</v>
       </c>
       <c r="AK274" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AL274" t="s" s="2">
         <v>20</v>
@@ -36148,7 +36145,7 @@
         <v>20</v>
       </c>
       <c r="AN274" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AO274" t="s" s="2">
         <v>20</v>
@@ -36156,10 +36153,10 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -36185,10 +36182,10 @@
         <v>169</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" s="2"/>
@@ -36271,10 +36268,10 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -36300,13 +36297,13 @@
         <v>134</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="O276" s="2"/>
       <c r="P276" t="s" s="2">
@@ -36388,10 +36385,10 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -36417,16 +36414,16 @@
         <v>102</v>
       </c>
       <c r="L277" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="M277" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="N277" t="s" s="2">
         <v>875</v>
       </c>
-      <c r="M277" t="s" s="2">
+      <c r="O277" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="N277" t="s" s="2">
-        <v>877</v>
-      </c>
-      <c r="O277" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="P277" t="s" s="2">
         <v>20</v>
@@ -36436,7 +36433,7 @@
         <v>20</v>
       </c>
       <c r="S277" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T277" t="s" s="2">
         <v>20</v>
@@ -36507,10 +36504,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -36536,13 +36533,13 @@
         <v>169</v>
       </c>
       <c r="L278" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="M278" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="N278" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="M278" t="s" s="2">
-        <v>883</v>
-      </c>
-      <c r="N278" t="s" s="2">
-        <v>884</v>
       </c>
       <c r="O278" s="2"/>
       <c r="P278" t="s" s="2">
@@ -36624,10 +36621,10 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -36653,14 +36650,14 @@
         <v>108</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="N279" s="2"/>
       <c r="O279" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="P279" t="s" s="2">
         <v>20</v>
@@ -36741,10 +36738,10 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -36770,14 +36767,14 @@
         <v>169</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="N280" s="2"/>
       <c r="O280" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="P280" t="s" s="2">
         <v>20</v>
@@ -36858,10 +36855,10 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -36887,16 +36884,16 @@
         <v>326</v>
       </c>
       <c r="L281" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="M281" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="N281" t="s" s="2">
         <v>897</v>
       </c>
-      <c r="M281" t="s" s="2">
+      <c r="O281" t="s" s="2">
         <v>898</v>
-      </c>
-      <c r="N281" t="s" s="2">
-        <v>899</v>
-      </c>
-      <c r="O281" t="s" s="2">
-        <v>900</v>
       </c>
       <c r="P281" t="s" s="2">
         <v>20</v>
@@ -36977,13 +36974,13 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D282" t="s" s="2">
         <v>20</v>
@@ -37005,19 +37002,19 @@
         <v>20</v>
       </c>
       <c r="K282" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="L282" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="M282" t="s" s="2">
         <v>858</v>
-      </c>
-      <c r="L282" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="M282" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="N282" t="s" s="2">
         <v>265</v>
       </c>
       <c r="O282" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="P282" t="s" s="2">
         <v>20</v>
@@ -37045,10 +37042,10 @@
         <v>184</v>
       </c>
       <c r="Y282" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="Z282" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="AA282" t="s" s="2">
         <v>20</v>
@@ -37081,7 +37078,7 @@
         <v>100</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AL282" t="s" s="2">
         <v>20</v>
@@ -37090,7 +37087,7 @@
         <v>20</v>
       </c>
       <c r="AN282" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AO282" t="s" s="2">
         <v>20</v>
@@ -37098,10 +37095,10 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -37127,10 +37124,10 @@
         <v>169</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" s="2"/>
@@ -37213,10 +37210,10 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -37242,13 +37239,13 @@
         <v>134</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="O284" s="2"/>
       <c r="P284" t="s" s="2">
@@ -37330,10 +37327,10 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -37359,16 +37356,16 @@
         <v>102</v>
       </c>
       <c r="L285" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="M285" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="N285" t="s" s="2">
         <v>875</v>
       </c>
-      <c r="M285" t="s" s="2">
+      <c r="O285" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="N285" t="s" s="2">
-        <v>877</v>
-      </c>
-      <c r="O285" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="P285" t="s" s="2">
         <v>20</v>
@@ -37378,7 +37375,7 @@
         <v>20</v>
       </c>
       <c r="S285" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="T285" t="s" s="2">
         <v>20</v>
@@ -37449,10 +37446,10 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -37478,13 +37475,13 @@
         <v>169</v>
       </c>
       <c r="L286" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="M286" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="N286" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="M286" t="s" s="2">
-        <v>883</v>
-      </c>
-      <c r="N286" t="s" s="2">
-        <v>884</v>
       </c>
       <c r="O286" s="2"/>
       <c r="P286" t="s" s="2">
@@ -37566,10 +37563,10 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -37595,14 +37592,14 @@
         <v>108</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="P287" t="s" s="2">
         <v>20</v>
@@ -37683,10 +37680,10 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -37712,14 +37709,14 @@
         <v>169</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="P288" t="s" s="2">
         <v>20</v>
@@ -37800,10 +37797,10 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -37829,16 +37826,16 @@
         <v>326</v>
       </c>
       <c r="L289" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="M289" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="N289" t="s" s="2">
         <v>897</v>
       </c>
-      <c r="M289" t="s" s="2">
+      <c r="O289" t="s" s="2">
         <v>898</v>
-      </c>
-      <c r="N289" t="s" s="2">
-        <v>899</v>
-      </c>
-      <c r="O289" t="s" s="2">
-        <v>900</v>
       </c>
       <c r="P289" t="s" s="2">
         <v>20</v>
@@ -37919,10 +37916,10 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -37948,16 +37945,16 @@
         <v>169</v>
       </c>
       <c r="L290" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="M290" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="N290" t="s" s="2">
         <v>925</v>
       </c>
-      <c r="M290" t="s" s="2">
+      <c r="O290" t="s" s="2">
         <v>926</v>
-      </c>
-      <c r="N290" t="s" s="2">
-        <v>927</v>
-      </c>
-      <c r="O290" t="s" s="2">
-        <v>928</v>
       </c>
       <c r="P290" t="s" s="2">
         <v>20</v>
@@ -38038,10 +38035,10 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
@@ -38067,10 +38064,10 @@
         <v>169</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="N291" s="2"/>
       <c r="O291" s="2"/>
@@ -38094,7 +38091,7 @@
         <v>20</v>
       </c>
       <c r="W291" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="X291" t="s" s="2">
         <v>20</v>
@@ -38153,10 +38150,10 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -38182,13 +38179,13 @@
         <v>169</v>
       </c>
       <c r="L292" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="M292" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="N292" t="s" s="2">
         <v>935</v>
-      </c>
-      <c r="M292" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="N292" t="s" s="2">
-        <v>937</v>
       </c>
       <c r="O292" s="2"/>
       <c r="P292" t="s" s="2">
@@ -38238,7 +38235,7 @@
         <v>20</v>
       </c>
       <c r="AF292" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AG292" t="s" s="2">
         <v>79</v>
@@ -38253,7 +38250,7 @@
         <v>100</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AL292" t="s" s="2">
         <v>20</v>
@@ -38262,7 +38259,7 @@
         <v>20</v>
       </c>
       <c r="AN292" t="s" s="2">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AO292" t="s" s="2">
         <v>20</v>
@@ -38270,10 +38267,10 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -38299,14 +38296,14 @@
         <v>219</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="N293" s="2"/>
       <c r="O293" t="s" s="2">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="P293" t="s" s="2">
         <v>20</v>
@@ -38319,7 +38316,7 @@
         <v>20</v>
       </c>
       <c r="T293" t="s" s="2">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="U293" t="s" s="2">
         <v>20</v>
@@ -38355,7 +38352,7 @@
         <v>20</v>
       </c>
       <c r="AF293" t="s" s="2">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AG293" t="s" s="2">
         <v>79</v>
@@ -38379,7 +38376,7 @@
         <v>20</v>
       </c>
       <c r="AN293" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AO293" t="s" s="2">
         <v>20</v>
@@ -38387,10 +38384,10 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -38416,16 +38413,16 @@
         <v>190</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="N294" t="s" s="2">
         <v>193</v>
       </c>
       <c r="O294" t="s" s="2">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="P294" t="s" s="2">
         <v>20</v>
@@ -38453,10 +38450,10 @@
         <v>195</v>
       </c>
       <c r="Y294" t="s" s="2">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="Z294" t="s" s="2">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="AA294" t="s" s="2">
         <v>20</v>
@@ -38474,7 +38471,7 @@
         <v>20</v>
       </c>
       <c r="AF294" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="AG294" t="s" s="2">
         <v>79</v>
@@ -38506,10 +38503,10 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -38532,19 +38529,19 @@
         <v>20</v>
       </c>
       <c r="K295" t="s" s="2">
+        <v>1013</v>
+      </c>
+      <c r="L295" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M295" t="s" s="2">
         <v>1015</v>
       </c>
-      <c r="L295" t="s" s="2">
+      <c r="N295" t="s" s="2">
         <v>1016</v>
       </c>
-      <c r="M295" t="s" s="2">
+      <c r="O295" t="s" s="2">
         <v>1017</v>
-      </c>
-      <c r="N295" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="O295" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="P295" t="s" s="2">
         <v>20</v>
@@ -38593,7 +38590,7 @@
         <v>20</v>
       </c>
       <c r="AF295" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="AG295" t="s" s="2">
         <v>79</v>
@@ -38608,7 +38605,7 @@
         <v>100</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AL295" t="s" s="2">
         <v>173</v>
@@ -38617,7 +38614,7 @@
         <v>20</v>
       </c>
       <c r="AN295" t="s" s="2">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="AO295" t="s" s="2">
         <v>20</v>
@@ -38625,10 +38622,10 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -38651,19 +38648,19 @@
         <v>20</v>
       </c>
       <c r="K296" t="s" s="2">
+        <v>1021</v>
+      </c>
+      <c r="L296" t="s" s="2">
+        <v>1022</v>
+      </c>
+      <c r="M296" t="s" s="2">
+        <v>1022</v>
+      </c>
+      <c r="N296" t="s" s="2">
         <v>1023</v>
       </c>
-      <c r="L296" t="s" s="2">
+      <c r="O296" t="s" s="2">
         <v>1024</v>
-      </c>
-      <c r="M296" t="s" s="2">
-        <v>1024</v>
-      </c>
-      <c r="N296" t="s" s="2">
-        <v>1025</v>
-      </c>
-      <c r="O296" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="P296" t="s" s="2">
         <v>20</v>
@@ -38712,7 +38709,7 @@
         <v>20</v>
       </c>
       <c r="AF296" t="s" s="2">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="AG296" t="s" s="2">
         <v>79</v>
@@ -38727,7 +38724,7 @@
         <v>100</v>
       </c>
       <c r="AK296" t="s" s="2">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="AL296" t="s" s="2">
         <v>173</v>
@@ -38736,7 +38733,7 @@
         <v>20</v>
       </c>
       <c r="AN296" t="s" s="2">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="AO296" t="s" s="2">
         <v>20</v>
@@ -38744,10 +38741,10 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -38770,19 +38767,19 @@
         <v>20</v>
       </c>
       <c r="K297" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="L297" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="M297" t="s" s="2">
         <v>1030</v>
       </c>
-      <c r="L297" t="s" s="2">
+      <c r="N297" t="s" s="2">
         <v>1031</v>
       </c>
-      <c r="M297" t="s" s="2">
+      <c r="O297" t="s" s="2">
         <v>1032</v>
-      </c>
-      <c r="N297" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="O297" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="P297" t="s" s="2">
         <v>20</v>
@@ -38831,7 +38828,7 @@
         <v>20</v>
       </c>
       <c r="AF297" t="s" s="2">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="AG297" t="s" s="2">
         <v>79</v>
@@ -38843,10 +38840,10 @@
         <v>20</v>
       </c>
       <c r="AJ297" t="s" s="2">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="AK297" t="s" s="2">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="AL297" t="s" s="2">
         <v>173</v>
@@ -38863,10 +38860,10 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -38978,10 +38975,10 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -39095,14 +39092,14 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E300" s="2"/>
       <c r="F300" t="s" s="2">
@@ -39124,10 +39121,10 @@
         <v>134</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="N300" t="s" s="2">
         <v>155</v>
@@ -39182,7 +39179,7 @@
         <v>20</v>
       </c>
       <c r="AF300" t="s" s="2">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AG300" t="s" s="2">
         <v>79</v>
@@ -39214,10 +39211,10 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" t="s" s="2">
@@ -39243,16 +39240,16 @@
         <v>190</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="N301" t="s" s="2">
         <v>193</v>
       </c>
       <c r="O301" t="s" s="2">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="P301" t="s" s="2">
         <v>20</v>
@@ -39283,7 +39280,7 @@
         <v>628</v>
       </c>
       <c r="Z301" t="s" s="2">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AA301" t="s" s="2">
         <v>20</v>
@@ -39301,7 +39298,7 @@
         <v>20</v>
       </c>
       <c r="AF301" t="s" s="2">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AG301" t="s" s="2">
         <v>79</v>
@@ -39333,10 +39330,10 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
@@ -39362,14 +39359,14 @@
         <v>480</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="N302" s="2"/>
       <c r="O302" t="s" s="2">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="P302" t="s" s="2">
         <v>20</v>
@@ -39418,7 +39415,7 @@
         <v>20</v>
       </c>
       <c r="AF302" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AG302" t="s" s="2">
         <v>79</v>
@@ -39442,7 +39439,7 @@
         <v>20</v>
       </c>
       <c r="AN302" t="s" s="2">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AO302" t="s" s="2">
         <v>20</v>
@@ -39450,10 +39447,10 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -39565,10 +39562,10 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -39682,10 +39679,10 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -39801,10 +39798,10 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -39830,13 +39827,13 @@
         <v>169</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="M306" t="s" s="2">
         <v>586</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>512</v>
@@ -39920,10 +39917,10 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -39949,7 +39946,7 @@
         <v>169</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="M307" t="s" s="2">
         <v>522</v>
@@ -40037,10 +40034,10 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -40066,7 +40063,7 @@
         <v>169</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="M308" t="s" s="2">
         <v>532</v>
@@ -40154,10 +40151,10 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
@@ -40269,10 +40266,10 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -40384,10 +40381,10 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -40501,10 +40498,10 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -40530,16 +40527,16 @@
         <v>615</v>
       </c>
       <c r="L312" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="M312" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="N312" t="s" s="2">
         <v>1068</v>
       </c>
-      <c r="M312" t="s" s="2">
+      <c r="O312" t="s" s="2">
         <v>1069</v>
-      </c>
-      <c r="N312" t="s" s="2">
-        <v>1070</v>
-      </c>
-      <c r="O312" t="s" s="2">
-        <v>1071</v>
       </c>
       <c r="P312" t="s" s="2">
         <v>20</v>
@@ -40588,7 +40585,7 @@
         <v>20</v>
       </c>
       <c r="AF312" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AG312" t="s" s="2">
         <v>79</v>
@@ -40612,7 +40609,7 @@
         <v>20</v>
       </c>
       <c r="AN312" t="s" s="2">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AO312" t="s" s="2">
         <v>20</v>
@@ -40620,10 +40617,10 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" t="s" s="2">
@@ -40735,10 +40732,10 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -40852,10 +40849,10 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -40967,10 +40964,10 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" t="s" s="2">
@@ -40996,10 +40993,10 @@
         <v>169</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="N316" t="s" s="2">
         <v>637</v>
@@ -41086,10 +41083,10 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -41205,10 +41202,10 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" t="s" s="2">
@@ -41322,10 +41319,10 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" t="s" s="2">
@@ -41437,10 +41434,10 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
@@ -41466,16 +41463,16 @@
         <v>688</v>
       </c>
       <c r="L320" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="M320" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="N320" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="O320" t="s" s="2">
         <v>1083</v>
-      </c>
-      <c r="M320" t="s" s="2">
-        <v>1083</v>
-      </c>
-      <c r="N320" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="O320" t="s" s="2">
-        <v>1084</v>
       </c>
       <c r="P320" t="s" s="2">
         <v>20</v>
@@ -41524,7 +41521,7 @@
         <v>20</v>
       </c>
       <c r="AF320" t="s" s="2">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AG320" t="s" s="2">
         <v>79</v>
@@ -41556,10 +41553,10 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" t="s" s="2">
@@ -41588,11 +41585,11 @@
         <v>660</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="N321" s="2"/>
       <c r="O321" t="s" s="2">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="P321" t="s" s="2">
         <v>20</v>
@@ -41620,7 +41617,7 @@
         <v>184</v>
       </c>
       <c r="Y321" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="Z321" t="s" s="2">
         <v>665</v>
@@ -41641,7 +41638,7 @@
         <v>20</v>
       </c>
       <c r="AF321" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AG321" t="s" s="2">
         <v>79</v>
@@ -41665,7 +41662,7 @@
         <v>20</v>
       </c>
       <c r="AN321" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AO321" t="s" s="2">
         <v>20</v>
@@ -41673,10 +41670,10 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -41699,17 +41696,17 @@
         <v>20</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>357</v>
+        <v>226</v>
       </c>
       <c r="L322" t="s" s="2">
+        <v>1090</v>
+      </c>
+      <c r="M322" t="s" s="2">
         <v>1091</v>
-      </c>
-      <c r="M322" t="s" s="2">
-        <v>1092</v>
       </c>
       <c r="N322" s="2"/>
       <c r="O322" t="s" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="P322" t="s" s="2">
         <v>20</v>
@@ -41758,7 +41755,7 @@
         <v>20</v>
       </c>
       <c r="AF322" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AG322" t="s" s="2">
         <v>79</v>
@@ -41767,13 +41764,13 @@
         <v>88</v>
       </c>
       <c r="AI322" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AJ322" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK322" t="s" s="2">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AL322" t="s" s="2">
         <v>173</v>
@@ -41782,7 +41779,7 @@
         <v>20</v>
       </c>
       <c r="AN322" t="s" s="2">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AO322" t="s" s="2">
         <v>20</v>
@@ -41790,10 +41787,10 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s" s="2">
@@ -41819,10 +41816,10 @@
         <v>219</v>
       </c>
       <c r="L323" t="s" s="2">
+        <v>1097</v>
+      </c>
+      <c r="M323" t="s" s="2">
         <v>1098</v>
-      </c>
-      <c r="M323" t="s" s="2">
-        <v>1099</v>
       </c>
       <c r="N323" s="2"/>
       <c r="O323" s="2"/>
@@ -41873,7 +41870,7 @@
         <v>20</v>
       </c>
       <c r="AF323" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AG323" t="s" s="2">
         <v>79</v>
@@ -41888,7 +41885,7 @@
         <v>100</v>
       </c>
       <c r="AK323" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AL323" t="s" s="2">
         <v>173</v>
@@ -41905,10 +41902,10 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" t="s" s="2">
@@ -41931,19 +41928,19 @@
         <v>20</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="L324" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="M324" t="s" s="2">
         <v>1102</v>
       </c>
-      <c r="M324" t="s" s="2">
+      <c r="N324" t="s" s="2">
         <v>1103</v>
       </c>
-      <c r="N324" t="s" s="2">
+      <c r="O324" t="s" s="2">
         <v>1104</v>
-      </c>
-      <c r="O324" t="s" s="2">
-        <v>1105</v>
       </c>
       <c r="P324" t="s" s="2">
         <v>20</v>
@@ -41992,7 +41989,7 @@
         <v>20</v>
       </c>
       <c r="AF324" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AG324" t="s" s="2">
         <v>79</v>
@@ -42007,10 +42004,10 @@
         <v>100</v>
       </c>
       <c r="AK324" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="AL324" t="s" s="2">
         <v>1106</v>
-      </c>
-      <c r="AL324" t="s" s="2">
-        <v>1107</v>
       </c>
       <c r="AM324" t="s" s="2">
         <v>20</v>
@@ -42024,10 +42021,10 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" t="s" s="2">
@@ -42139,10 +42136,10 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" t="s" s="2">
@@ -42256,14 +42253,14 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E327" s="2"/>
       <c r="F327" t="s" s="2">
@@ -42285,10 +42282,10 @@
         <v>134</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="N327" t="s" s="2">
         <v>155</v>
@@ -42343,7 +42340,7 @@
         <v>20</v>
       </c>
       <c r="AF327" t="s" s="2">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AG327" t="s" s="2">
         <v>79</v>
@@ -42375,10 +42372,10 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" t="s" s="2">
@@ -42404,16 +42401,16 @@
         <v>190</v>
       </c>
       <c r="L328" t="s" s="2">
+        <v>1111</v>
+      </c>
+      <c r="M328" t="s" s="2">
         <v>1112</v>
       </c>
-      <c r="M328" t="s" s="2">
+      <c r="N328" t="s" s="2">
         <v>1113</v>
       </c>
-      <c r="N328" t="s" s="2">
+      <c r="O328" t="s" s="2">
         <v>1114</v>
-      </c>
-      <c r="O328" t="s" s="2">
-        <v>1115</v>
       </c>
       <c r="P328" t="s" s="2">
         <v>20</v>
@@ -42462,7 +42459,7 @@
         <v>20</v>
       </c>
       <c r="AF328" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AG328" t="s" s="2">
         <v>88</v>
@@ -42494,10 +42491,10 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
@@ -42523,16 +42520,16 @@
         <v>326</v>
       </c>
       <c r="L329" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="M329" t="s" s="2">
         <v>1117</v>
       </c>
-      <c r="M329" t="s" s="2">
+      <c r="N329" t="s" s="2">
         <v>1118</v>
       </c>
-      <c r="N329" t="s" s="2">
+      <c r="O329" t="s" s="2">
         <v>1119</v>
-      </c>
-      <c r="O329" t="s" s="2">
-        <v>1120</v>
       </c>
       <c r="P329" t="s" s="2">
         <v>20</v>
@@ -42581,7 +42578,7 @@
         <v>20</v>
       </c>
       <c r="AF329" t="s" s="2">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AG329" t="s" s="2">
         <v>79</v>
@@ -42596,16 +42593,16 @@
         <v>100</v>
       </c>
       <c r="AK329" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="AL329" t="s" s="2">
         <v>1121</v>
       </c>
-      <c r="AL329" t="s" s="2">
+      <c r="AM329" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN329" t="s" s="2">
         <v>1122</v>
-      </c>
-      <c r="AM329" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN329" t="s" s="2">
-        <v>1123</v>
       </c>
       <c r="AO329" t="s" s="2">
         <v>20</v>
@@ -42613,14 +42610,14 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E330" s="2"/>
       <c r="F330" t="s" s="2">
@@ -42639,16 +42636,16 @@
         <v>20</v>
       </c>
       <c r="K330" t="s" s="2">
+        <v>1125</v>
+      </c>
+      <c r="L330" t="s" s="2">
         <v>1126</v>
       </c>
-      <c r="L330" t="s" s="2">
+      <c r="M330" t="s" s="2">
         <v>1127</v>
       </c>
-      <c r="M330" t="s" s="2">
+      <c r="N330" t="s" s="2">
         <v>1128</v>
-      </c>
-      <c r="N330" t="s" s="2">
-        <v>1129</v>
       </c>
       <c r="O330" s="2"/>
       <c r="P330" t="s" s="2">
@@ -42698,7 +42695,7 @@
         <v>20</v>
       </c>
       <c r="AF330" t="s" s="2">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AG330" t="s" s="2">
         <v>79</v>
@@ -42713,7 +42710,7 @@
         <v>100</v>
       </c>
       <c r="AK330" t="s" s="2">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AL330" t="s" s="2">
         <v>173</v>
@@ -42722,7 +42719,7 @@
         <v>20</v>
       </c>
       <c r="AN330" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AO330" t="s" s="2">
         <v>20</v>
@@ -42730,10 +42727,10 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -42756,19 +42753,19 @@
         <v>89</v>
       </c>
       <c r="K331" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="L331" t="s" s="2">
         <v>1133</v>
       </c>
-      <c r="L331" t="s" s="2">
+      <c r="M331" t="s" s="2">
         <v>1134</v>
       </c>
-      <c r="M331" t="s" s="2">
+      <c r="N331" t="s" s="2">
         <v>1135</v>
       </c>
-      <c r="N331" t="s" s="2">
+      <c r="O331" t="s" s="2">
         <v>1136</v>
-      </c>
-      <c r="O331" t="s" s="2">
-        <v>1137</v>
       </c>
       <c r="P331" t="s" s="2">
         <v>20</v>
@@ -42817,7 +42814,7 @@
         <v>20</v>
       </c>
       <c r="AF331" t="s" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="AG331" t="s" s="2">
         <v>79</v>
@@ -42832,10 +42829,10 @@
         <v>100</v>
       </c>
       <c r="AK331" t="s" s="2">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AL331" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AM331" t="s" s="2">
         <v>20</v>
@@ -42849,10 +42846,10 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
@@ -42964,10 +42961,10 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" t="s" s="2">
@@ -43081,10 +43078,10 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" t="s" s="2">
@@ -43110,13 +43107,13 @@
         <v>169</v>
       </c>
       <c r="L334" t="s" s="2">
+        <v>1141</v>
+      </c>
+      <c r="M334" t="s" s="2">
         <v>1142</v>
       </c>
-      <c r="M334" t="s" s="2">
+      <c r="N334" t="s" s="2">
         <v>1143</v>
-      </c>
-      <c r="N334" t="s" s="2">
-        <v>1144</v>
       </c>
       <c r="O334" s="2"/>
       <c r="P334" t="s" s="2">
@@ -43166,16 +43163,16 @@
         <v>20</v>
       </c>
       <c r="AF334" t="s" s="2">
+        <v>1144</v>
+      </c>
+      <c r="AG334" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH334" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI334" t="s" s="2">
         <v>1145</v>
-      </c>
-      <c r="AG334" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH334" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI334" t="s" s="2">
-        <v>1146</v>
       </c>
       <c r="AJ334" t="s" s="2">
         <v>100</v>
@@ -43198,10 +43195,10 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" t="s" s="2">
@@ -43227,13 +43224,13 @@
         <v>102</v>
       </c>
       <c r="L335" t="s" s="2">
+        <v>1147</v>
+      </c>
+      <c r="M335" t="s" s="2">
         <v>1148</v>
       </c>
-      <c r="M335" t="s" s="2">
+      <c r="N335" t="s" s="2">
         <v>1149</v>
-      </c>
-      <c r="N335" t="s" s="2">
-        <v>1150</v>
       </c>
       <c r="O335" s="2"/>
       <c r="P335" t="s" s="2">
@@ -43262,28 +43259,28 @@
         <v>195</v>
       </c>
       <c r="Y335" t="s" s="2">
+        <v>1150</v>
+      </c>
+      <c r="Z335" t="s" s="2">
         <v>1151</v>
       </c>
-      <c r="Z335" t="s" s="2">
+      <c r="AA335" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB335" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC335" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD335" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE335" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF335" t="s" s="2">
         <v>1152</v>
-      </c>
-      <c r="AA335" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB335" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC335" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD335" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE335" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF335" t="s" s="2">
-        <v>1153</v>
       </c>
       <c r="AG335" t="s" s="2">
         <v>79</v>
@@ -43315,10 +43312,10 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s" s="2">
@@ -43344,13 +43341,13 @@
         <v>159</v>
       </c>
       <c r="L336" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="M336" t="s" s="2">
         <v>1155</v>
       </c>
-      <c r="M336" t="s" s="2">
+      <c r="N336" t="s" s="2">
         <v>1156</v>
-      </c>
-      <c r="N336" t="s" s="2">
-        <v>1157</v>
       </c>
       <c r="O336" s="2"/>
       <c r="P336" t="s" s="2">
@@ -43400,7 +43397,7 @@
         <v>20</v>
       </c>
       <c r="AF336" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AG336" t="s" s="2">
         <v>79</v>
@@ -43415,7 +43412,7 @@
         <v>100</v>
       </c>
       <c r="AK336" t="s" s="2">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AL336" t="s" s="2">
         <v>20</v>
@@ -43432,10 +43429,10 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
@@ -43461,13 +43458,13 @@
         <v>169</v>
       </c>
       <c r="L337" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="M337" t="s" s="2">
         <v>1161</v>
       </c>
-      <c r="M337" t="s" s="2">
+      <c r="N337" t="s" s="2">
         <v>1162</v>
-      </c>
-      <c r="N337" t="s" s="2">
-        <v>1163</v>
       </c>
       <c r="O337" s="2"/>
       <c r="P337" t="s" s="2">
@@ -43517,7 +43514,7 @@
         <v>20</v>
       </c>
       <c r="AF337" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AG337" t="s" s="2">
         <v>79</v>
@@ -43549,10 +43546,10 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" t="s" s="2">
@@ -43575,19 +43572,19 @@
         <v>89</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="L338" t="s" s="2">
+        <v>1165</v>
+      </c>
+      <c r="M338" t="s" s="2">
         <v>1166</v>
       </c>
-      <c r="M338" t="s" s="2">
+      <c r="N338" t="s" s="2">
         <v>1167</v>
       </c>
-      <c r="N338" t="s" s="2">
+      <c r="O338" t="s" s="2">
         <v>1168</v>
-      </c>
-      <c r="O338" t="s" s="2">
-        <v>1169</v>
       </c>
       <c r="P338" t="s" s="2">
         <v>20</v>
@@ -43636,7 +43633,7 @@
         <v>20</v>
       </c>
       <c r="AF338" t="s" s="2">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AG338" t="s" s="2">
         <v>79</v>
@@ -43651,7 +43648,7 @@
         <v>100</v>
       </c>
       <c r="AK338" t="s" s="2">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AL338" t="s" s="2">
         <v>173</v>
@@ -43668,10 +43665,10 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" t="s" s="2">
@@ -43783,10 +43780,10 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" t="s" s="2">
@@ -43900,14 +43897,14 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" t="s" s="2">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E341" s="2"/>
       <c r="F341" t="s" s="2">
@@ -43929,10 +43926,10 @@
         <v>134</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="N341" t="s" s="2">
         <v>155</v>
@@ -43987,7 +43984,7 @@
         <v>20</v>
       </c>
       <c r="AF341" t="s" s="2">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AG341" t="s" s="2">
         <v>79</v>
@@ -44019,10 +44016,10 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" t="s" s="2">
@@ -44045,16 +44042,16 @@
         <v>89</v>
       </c>
       <c r="K342" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="L342" t="s" s="2">
         <v>1175</v>
       </c>
-      <c r="L342" t="s" s="2">
+      <c r="M342" t="s" s="2">
         <v>1176</v>
       </c>
-      <c r="M342" t="s" s="2">
+      <c r="N342" t="s" s="2">
         <v>1177</v>
-      </c>
-      <c r="N342" t="s" s="2">
-        <v>1178</v>
       </c>
       <c r="O342" s="2"/>
       <c r="P342" t="s" s="2">
@@ -44104,7 +44101,7 @@
         <v>20</v>
       </c>
       <c r="AF342" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AG342" t="s" s="2">
         <v>88</v>
@@ -44128,7 +44125,7 @@
         <v>20</v>
       </c>
       <c r="AN342" t="s" s="2">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AO342" t="s" s="2">
         <v>20</v>
@@ -44136,10 +44133,10 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
@@ -44165,10 +44162,10 @@
         <v>108</v>
       </c>
       <c r="L343" t="s" s="2">
+        <v>1180</v>
+      </c>
+      <c r="M343" t="s" s="2">
         <v>1181</v>
-      </c>
-      <c r="M343" t="s" s="2">
-        <v>1182</v>
       </c>
       <c r="N343" s="2"/>
       <c r="O343" s="2"/>
@@ -44198,11 +44195,11 @@
         <v>184</v>
       </c>
       <c r="Y343" t="s" s="2">
+        <v>1182</v>
+      </c>
+      <c r="Z343" t="s" s="2">
         <v>1183</v>
       </c>
-      <c r="Z343" t="s" s="2">
-        <v>1184</v>
-      </c>
       <c r="AA343" t="s" s="2">
         <v>20</v>
       </c>
@@ -44219,7 +44216,7 @@
         <v>20</v>
       </c>
       <c r="AF343" t="s" s="2">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AG343" t="s" s="2">
         <v>88</v>
@@ -44234,7 +44231,7 @@
         <v>100</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AL343" t="s" s="2">
         <v>173</v>

--- a/docs/StructureDefinition-LTCPatient.xlsx
+++ b/docs/StructureDefinition-LTCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatient.xlsx
+++ b/docs/StructureDefinition-LTCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatient.xlsx
+++ b/docs/StructureDefinition-LTCPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -3997,17 +3997,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="80.15625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="54.7578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.47265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="78.9609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.09765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.03125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="209.87890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="198.32421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4016,27 +4016,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.58203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.9375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.44921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.1640625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="137.7109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="35.7421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="92.15234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.9296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCPatient.xlsx
+++ b/docs/StructureDefinition-LTCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatient.xlsx
+++ b/docs/StructureDefinition-LTCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatient.xlsx
+++ b/docs/StructureDefinition-LTCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatient.xlsx
+++ b/docs/StructureDefinition-LTCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatient.xlsx
+++ b/docs/StructureDefinition-LTCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatient.xlsx
+++ b/docs/StructureDefinition-LTCPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
